--- a/biology/Botanique/Vanilloideae/Vanilloideae.xlsx
+++ b/biology/Botanique/Vanilloideae/Vanilloideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Vanilloideae sont une sous-famille d'Orchidées dont font partie les espèces productrices de la vanille.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Vanilloideae possèdent un certain nombre de caractères inhabituels chez les Orchidacées, dont celui relatif à la déhiscence des fruits.
 </t>
@@ -542,20 +556,91 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>voir : Monocotyledoneae (classification phylogénétique)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voir : Monocotyledoneae (classification phylogénétique)
 Longtemps traités comme une famille à part entière, nommée Vanillaceae, la génétique révèle que la sous-famille des Vanilloideae est en fait proche des sous-familles des Epidendroideae et des Orchidoideae. La sous famille des Vanilloideae se compose de 15 genres et d'environ 180 espèces réparties en deux tribus, les Pogonieae (syn. Pogoniinae) et les Vanilleae (syn. Vanillinae).
-Pogonieae
-La couleur des pétales et sépales est rose quelques fois blanche ou bleuâtre. Leurs sépales ont une forme oblongue, elliptique, ou lancéolée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vanilloideae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vanilloideae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pogonieae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La couleur des pétales et sépales est rose quelques fois blanche ou bleuâtre. Leurs sépales ont une forme oblongue, elliptique, ou lancéolée.
 Genres :
 Cleistes
 Duckeella
 Osotria
 Pogonia
-Pogoniopsis
-Vanilleae
-Les Vanilleae sont des lianes grimpantes. Ce ne sont cependant ni des plantes parasites, ni des plantes totalement épiphytes, elles sont hémiépiphytes.
+Pogoniopsis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vanilloideae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vanilloideae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vanilleae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Vanilleae sont des lianes grimpantes. Ce ne sont cependant ni des plantes parasites, ni des plantes totalement épiphytes, elles sont hémiépiphytes.
 Clematepistephium
 Cyrtosia
 Dictyophyllaria
